--- a/mikro-doc/Entegre Mikro İslem Tip Tablosu 14-10-2016.xlsx
+++ b/mikro-doc/Entegre Mikro İslem Tip Tablosu 14-10-2016.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="271">
   <si>
     <t>chaislemid</t>
   </si>
@@ -827,6 +827,9 @@
   </si>
   <si>
     <t xml:space="preserve">26:Stok Gider Pusulası </t>
+  </si>
+  <si>
+    <t>:</t>
   </si>
 </sst>
 </file>
@@ -1304,1329 +1307,1426 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9.140625" style="11"/>
-    <col min="5" max="5" width="8.5703125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="47.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" style="11" customWidth="1"/>
-    <col min="8" max="8" width="34.7109375" style="11" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" style="11" customWidth="1"/>
-    <col min="10" max="10" width="21" style="11" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="11"/>
-    <col min="12" max="12" width="29.140625" style="11" customWidth="1"/>
-    <col min="13" max="13" width="26.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="11"/>
+    <col min="2" max="2" width="6" style="11" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="11"/>
+    <col min="6" max="6" width="8.5703125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="47.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="34.7109375" style="11" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="21" style="11" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="11"/>
+    <col min="13" max="13" width="29.140625" style="11" customWidth="1"/>
+    <col min="14" max="14" width="26.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="K1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="11" t="s">
+      <c r="L1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="11" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="11">
-        <v>0</v>
+      <c r="B2" s="11" t="s">
+        <v>270</v>
       </c>
       <c r="C2" s="11">
+        <v>0</v>
+      </c>
+      <c r="D2" s="11">
         <v>6</v>
       </c>
-      <c r="D2" s="11">
+      <c r="E2" s="11">
         <v>1</v>
       </c>
-      <c r="E2" s="11">
-        <v>0</v>
-      </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="11">
+        <v>0</v>
+      </c>
+      <c r="G2" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="J2" s="11" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($J$1,"$1",A2),"$2",B2),"$3",C2),"$4",D2),"$5",E2),"$6",F2)</f>
+      <c r="K2" s="11" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($K$1,"$1",A2),"$2",C2),"$3",D2),"$4",E2),"$5",F2),"$6",G2)</f>
         <v>INSERT INTO TblMikroHrkTip VALUES( 1,0,6,1,0,'Alış Faturası')</v>
       </c>
-      <c r="K2" s="11">
+      <c r="L2" s="11">
         <v>17</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="M2" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="M2" s="11" t="str">
-        <f>L2&amp;"("&amp;A2&amp;"),"</f>
+      <c r="N2" s="11" t="str">
+        <f>M2&amp;"("&amp;A2&amp;"),"</f>
         <v>AlisFat(1),</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="11">
-        <v>0</v>
+      <c r="B3" s="11" t="s">
+        <v>270</v>
       </c>
       <c r="C3" s="11">
+        <v>0</v>
+      </c>
+      <c r="D3" s="11">
         <v>6</v>
-      </c>
-      <c r="D3" s="11">
-        <v>1</v>
       </c>
       <c r="E3" s="11">
         <v>1</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="11">
+        <v>1</v>
+      </c>
+      <c r="G3" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="I3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="J3" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="J3" s="11" t="str">
-        <f t="shared" ref="J3:J33" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($J$1,"$1",A3),"$2",B3),"$3",C3),"$4",D3),"$5",E3),"$6",F3)</f>
+      <c r="K3" s="11" t="str">
+        <f t="shared" ref="K3:K33" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($K$1,"$1",A3),"$2",C3),"$3",D3),"$4",E3),"$5",F3),"$6",G3)</f>
         <v>INSERT INTO TblMikroHrkTip VALUES( 2,0,6,1,1,'Müşt.den İade (Bozuk ve Saglam) Faturası')</v>
       </c>
-      <c r="K3" s="11">
+      <c r="L3" s="11">
         <v>29</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="M3" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="M3" s="11" t="str">
-        <f t="shared" ref="M3:M31" si="1">L3&amp;"("&amp;A3&amp;"),"</f>
+      <c r="N3" s="11" t="str">
+        <f t="shared" ref="N3:N31" si="1">M3&amp;"("&amp;A3&amp;"),"</f>
         <v>MustIadeFat(2),</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C4" s="11">
         <v>63</v>
       </c>
-      <c r="C4" s="11">
+      <c r="D4" s="11">
         <v>6</v>
       </c>
-      <c r="D4" s="11">
-        <v>0</v>
-      </c>
       <c r="E4" s="11">
         <v>0</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="11">
+        <v>0</v>
+      </c>
+      <c r="G4" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="I4" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="J4" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="J4" s="11" t="str">
+      <c r="K4" s="11" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO TblMikroHrkTip VALUES( 3,63,6,0,0,'Satış Faturasi')</v>
       </c>
-      <c r="K4" s="11">
+      <c r="L4" s="11">
         <v>18</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="M4" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="M4" s="11" t="str">
+      <c r="N4" s="11" t="str">
         <f t="shared" si="1"/>
         <v>SatisFat(3),</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C5" s="11">
         <v>63</v>
       </c>
-      <c r="C5" s="11">
+      <c r="D5" s="11">
         <v>6</v>
       </c>
-      <c r="D5" s="11">
-        <v>0</v>
-      </c>
       <c r="E5" s="11">
+        <v>0</v>
+      </c>
+      <c r="F5" s="11">
         <v>1</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="G5" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="I5" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="J5" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="J5" s="11" t="str">
+      <c r="K5" s="11" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO TblMikroHrkTip VALUES( 4,63,6,0,1,'Satıcıya İade Faturası')</v>
       </c>
-      <c r="K5" s="11">
+      <c r="L5" s="11">
         <v>30</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="M5" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="M5" s="11" t="str">
+      <c r="N5" s="11" t="str">
         <f t="shared" si="1"/>
         <v>SatIadeFat(4),</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="11">
-        <v>0</v>
+      <c r="B6" s="11" t="s">
+        <v>270</v>
       </c>
       <c r="C6" s="11">
+        <v>0</v>
+      </c>
+      <c r="D6" s="11">
         <v>8</v>
       </c>
-      <c r="D6" s="11">
+      <c r="E6" s="11">
         <v>1</v>
       </c>
-      <c r="E6" s="11">
-        <v>0</v>
-      </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="11">
+        <v>0</v>
+      </c>
+      <c r="G6" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="I6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="J6" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="J6" s="11" t="str">
+      <c r="K6" s="11" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO TblMikroHrkTip VALUES( 5,0,8,1,0,'Alınan Hizmet Faturası')</v>
       </c>
-      <c r="K6" s="11">
+      <c r="L6" s="11">
         <v>19</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="M6" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="M6" s="11" t="str">
+      <c r="N6" s="11" t="str">
         <f t="shared" si="1"/>
         <v>AlinanHizFat(5),</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C7" s="11">
         <v>63</v>
       </c>
-      <c r="C7" s="11">
+      <c r="D7" s="11">
         <v>8</v>
       </c>
-      <c r="D7" s="11">
-        <v>0</v>
-      </c>
       <c r="E7" s="11">
         <v>0</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="11">
+        <v>0</v>
+      </c>
+      <c r="G7" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="I7" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="J7" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="J7" s="11" t="str">
+      <c r="K7" s="11" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO TblMikroHrkTip VALUES( 6,63,8,0,0,'Verilen Hizmet Faturası')</v>
       </c>
-      <c r="K7" s="11">
+      <c r="L7" s="11">
         <v>20</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="M7" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="M7" s="11" t="str">
+      <c r="N7" s="11" t="str">
         <f t="shared" si="1"/>
         <v>VerHizFat(6),</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="24">
         <v>7</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C8" s="11">
         <v>1</v>
       </c>
-      <c r="C8" s="11">
-        <v>0</v>
-      </c>
       <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="11">
         <v>1</v>
       </c>
-      <c r="E8" s="11">
-        <v>0</v>
-      </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="11">
+        <v>0</v>
+      </c>
+      <c r="G8" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="I8" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="J8" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="J8" s="11" t="str">
+      <c r="K8" s="11" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO TblMikroHrkTip VALUES( 7,1,0,1,0,'Nakit Tahsilat')</v>
       </c>
-      <c r="K8" s="11">
+      <c r="L8" s="11">
         <v>1</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="M8" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="M8" s="11" t="str">
+      <c r="N8" s="11" t="str">
         <f t="shared" si="1"/>
         <v>NakitTah(7),</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="24">
         <v>8</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C9" s="11">
         <v>34</v>
       </c>
-      <c r="C9" s="11">
-        <v>0</v>
-      </c>
       <c r="D9" s="11">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11">
         <v>1</v>
       </c>
-      <c r="E9" s="11">
-        <v>0</v>
-      </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="11">
+        <v>0</v>
+      </c>
+      <c r="G9" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="I9" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="J9" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="J9" s="11" t="str">
+      <c r="K9" s="11" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO TblMikroHrkTip VALUES( 8,34,0,1,0,'Havale (Alacak)')</v>
       </c>
-      <c r="K9" s="11">
+      <c r="L9" s="11">
         <v>2</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="M9" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="M9" s="11" t="str">
+      <c r="N9" s="11" t="str">
         <f t="shared" si="1"/>
         <v>HavaleAlacak(8),</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C10" s="11">
         <v>35</v>
       </c>
-      <c r="C10" s="11">
-        <v>0</v>
-      </c>
       <c r="D10" s="11">
         <v>0</v>
       </c>
       <c r="E10" s="11">
         <v>0</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="11">
+        <v>0</v>
+      </c>
+      <c r="G10" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="I10" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="J10" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="J10" s="11" t="str">
+      <c r="K10" s="11" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO TblMikroHrkTip VALUES( 9,35,0,0,0,'Havale Ödeme (Borç)(Gönderilen)')</v>
       </c>
-      <c r="K10" s="11">
+      <c r="L10" s="11">
         <v>3</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="M10" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="M10" s="11" t="str">
+      <c r="N10" s="11" t="str">
         <f t="shared" si="1"/>
         <v>HavaleBorc(9),</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C11" s="11">
         <v>37</v>
       </c>
-      <c r="C11" s="11">
-        <v>0</v>
-      </c>
       <c r="D11" s="11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="11">
         <v>1</v>
       </c>
-      <c r="E11" s="11">
-        <v>0</v>
-      </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="I11" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="J11" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="J11" s="11" t="str">
+      <c r="K11" s="11" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO TblMikroHrkTip VALUES( 10,37,0,1,0,'Kasa Masraf Fişi (Alacak)')</v>
       </c>
-      <c r="K11" s="11">
+      <c r="L11" s="11">
         <v>28</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="M11" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="M11" s="11" t="str">
+      <c r="N11" s="11" t="str">
         <f t="shared" si="1"/>
         <v>KasaMasrafFis(10),</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="24">
         <v>11</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C12" s="11">
         <v>4</v>
-      </c>
-      <c r="C12" s="11">
-        <v>1</v>
       </c>
       <c r="D12" s="11">
         <v>1</v>
       </c>
       <c r="E12" s="11">
-        <v>0</v>
-      </c>
-      <c r="F12" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0</v>
+      </c>
+      <c r="G12" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="I12" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="J12" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="J12" s="11" t="str">
+      <c r="K12" s="11" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO TblMikroHrkTip VALUES( 11,4,1,1,0,'Çek Alınan (Müşteri Çek Giriş)')</v>
       </c>
-      <c r="K12" s="11">
+      <c r="L12" s="11">
         <v>4</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="M12" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="M12" s="11" t="str">
+      <c r="N12" s="11" t="str">
         <f t="shared" si="1"/>
         <v>CekGiris(11),</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C13" s="11">
         <v>5</v>
       </c>
-      <c r="C13" s="11">
+      <c r="D13" s="11">
         <v>1</v>
       </c>
-      <c r="D13" s="11">
-        <v>0</v>
-      </c>
       <c r="E13" s="11">
         <v>0</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="11">
+        <v>0</v>
+      </c>
+      <c r="G13" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="I13" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="J13" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="J13" s="11" t="str">
+      <c r="K13" s="11" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO TblMikroHrkTip VALUES( 12,5,1,0,0,'Portföydeki Çek Nakit (Borç)')</v>
       </c>
-      <c r="K13" s="11">
+      <c r="L13" s="11">
         <v>5</v>
       </c>
-      <c r="L13" s="11" t="s">
+      <c r="M13" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="M13" s="11" t="str">
+      <c r="N13" s="11" t="str">
         <f t="shared" si="1"/>
         <v>PortfoyCek(12),</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>13</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C14" s="11">
         <v>11</v>
       </c>
-      <c r="C14" s="11">
+      <c r="D14" s="11">
         <v>1</v>
       </c>
-      <c r="D14" s="11">
-        <v>0</v>
-      </c>
       <c r="E14" s="11">
         <v>0</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="11">
+        <v>0</v>
+      </c>
+      <c r="G14" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="I14" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="J14" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="J14" s="11" t="str">
+      <c r="K14" s="11" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO TblMikroHrkTip VALUES( 13,11,1,0,0,'Takas Çek Çıkış (Borç)')</v>
       </c>
-      <c r="K14" s="11">
+      <c r="L14" s="11">
         <v>6</v>
       </c>
-      <c r="L14" s="11" t="s">
+      <c r="M14" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="M14" s="11" t="str">
+      <c r="N14" s="11" t="str">
         <f t="shared" si="1"/>
         <v>TakasCekBorc(13),</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>14</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C15" s="11">
         <v>14</v>
-      </c>
-      <c r="C15" s="11">
-        <v>1</v>
       </c>
       <c r="D15" s="11">
         <v>1</v>
       </c>
       <c r="E15" s="11">
-        <v>0</v>
-      </c>
-      <c r="F15" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="11">
+        <v>0</v>
+      </c>
+      <c r="G15" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="I15" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="J15" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="J15" s="11" t="str">
+      <c r="K15" s="11" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO TblMikroHrkTip VALUES( 14,14,1,1,0,'Takas Çek Ödeme (Alacak)')</v>
       </c>
-      <c r="K15" s="11">
+      <c r="L15" s="11">
         <v>7</v>
       </c>
-      <c r="L15" s="11" t="s">
+      <c r="M15" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="M15" s="11" t="str">
+      <c r="N15" s="11" t="str">
         <f t="shared" si="1"/>
         <v>TakasCekAlacak(14),</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C16" s="11">
         <v>29</v>
       </c>
-      <c r="C16" s="11">
+      <c r="D16" s="11">
         <v>16</v>
       </c>
-      <c r="D16" s="11">
-        <v>0</v>
-      </c>
       <c r="E16" s="11">
         <v>0</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="11">
+        <v>0</v>
+      </c>
+      <c r="G16" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="I16" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="J16" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="J16" s="11" t="str">
+      <c r="K16" s="11" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO TblMikroHrkTip VALUES( 15,29,16,0,0,'Açılış (Borç)')</v>
       </c>
-      <c r="K16" s="11">
+      <c r="L16" s="11">
         <v>21</v>
       </c>
-      <c r="L16" s="11" t="s">
+      <c r="M16" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="M16" s="11" t="str">
+      <c r="N16" s="11" t="str">
         <f t="shared" si="1"/>
         <v>AcilisBorc(15),</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>16</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C17" s="11">
         <v>29</v>
       </c>
-      <c r="C17" s="11">
+      <c r="D17" s="11">
         <v>16</v>
       </c>
-      <c r="D17" s="11">
+      <c r="E17" s="11">
         <v>1</v>
       </c>
-      <c r="E17" s="11">
-        <v>0</v>
-      </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="11">
+        <v>0</v>
+      </c>
+      <c r="G17" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="I17" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="J17" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="J17" s="11" t="str">
+      <c r="K17" s="11" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO TblMikroHrkTip VALUES( 16,29,16,1,0,'Açılış (Alacak)')</v>
       </c>
-      <c r="K17" s="11">
+      <c r="L17" s="11">
         <v>22</v>
       </c>
-      <c r="L17" s="11" t="s">
+      <c r="M17" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="M17" s="11" t="str">
+      <c r="N17" s="11" t="str">
         <f t="shared" si="1"/>
         <v>AcilisAlacak(16),</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="24">
         <v>17</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C18" s="11">
         <v>1</v>
       </c>
-      <c r="C18" s="11">
+      <c r="D18" s="11">
         <v>19</v>
       </c>
-      <c r="D18" s="11">
+      <c r="E18" s="11">
         <v>1</v>
       </c>
-      <c r="E18" s="11">
-        <v>0</v>
-      </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="11">
+        <v>0</v>
+      </c>
+      <c r="G18" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="I18" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="J18" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="J18" s="11" t="str">
+      <c r="K18" s="11" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO TblMikroHrkTip VALUES( 17,1,19,1,0,'Kredi Kartı Tahsilatı (Müşteri)')</v>
       </c>
-      <c r="K18" s="11">
+      <c r="L18" s="11">
         <v>23</v>
       </c>
-      <c r="L18" s="11" t="s">
+      <c r="M18" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="M18" s="11" t="str">
+      <c r="N18" s="11" t="str">
         <f t="shared" si="1"/>
         <v>KrediKartiTahsilati(17),</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="23">
         <v>18</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C19" s="11">
         <v>54</v>
       </c>
-      <c r="C19" s="11">
+      <c r="D19" s="11">
         <v>19</v>
       </c>
-      <c r="D19" s="11">
-        <v>0</v>
-      </c>
       <c r="E19" s="11">
         <v>0</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="I19" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="J19" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="J19" s="11" t="str">
+      <c r="K19" s="11" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO TblMikroHrkTip VALUES( 18,54,19,0,0,'Kredi Kartı Ödeme(Borç)')</v>
       </c>
-      <c r="K19" s="11">
+      <c r="L19" s="11">
         <v>24</v>
       </c>
-      <c r="L19" s="11" t="s">
+      <c r="M19" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="M19" s="11" t="str">
+      <c r="N19" s="11" t="str">
         <f t="shared" si="1"/>
         <v>KrediKartiOdeme(18),</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>19</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C20" s="11">
         <v>104</v>
       </c>
-      <c r="C20" s="11">
+      <c r="D20" s="11">
         <v>19</v>
       </c>
-      <c r="D20" s="11">
-        <v>0</v>
-      </c>
       <c r="E20" s="11">
         <v>0</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="11">
+        <v>0</v>
+      </c>
+      <c r="G20" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="I20" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="J20" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="J20" s="11" t="str">
+      <c r="K20" s="11" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO TblMikroHrkTip VALUES( 19,104,19,0,0,'Bankalar Arası Kredi Kartı Transferi(Borç)')</v>
       </c>
-      <c r="K20" s="11">
+      <c r="L20" s="11">
         <v>25</v>
       </c>
-      <c r="L20" s="11" t="s">
+      <c r="M20" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="M20" s="11" t="str">
+      <c r="N20" s="11" t="str">
         <f t="shared" si="1"/>
         <v>BankArasiKKTransfer(19),</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>20</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C21" s="11">
         <v>64</v>
       </c>
-      <c r="C21" s="11">
+      <c r="D21" s="11">
         <v>22</v>
       </c>
-      <c r="D21" s="11">
-        <v>0</v>
-      </c>
       <c r="E21" s="11">
         <v>0</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="11">
+        <v>0</v>
+      </c>
+      <c r="G21" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="I21" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="J21" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="J21" s="11" t="str">
+      <c r="K21" s="11" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO TblMikroHrkTip VALUES( 20,64,22,0,0,'Kredi Kartı Ödeme(Firma)(Borç)Tediye Makbuzu')</v>
       </c>
-      <c r="K21" s="11">
+      <c r="L21" s="11">
         <v>26</v>
       </c>
-      <c r="L21" s="11" t="s">
+      <c r="M21" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="M21" s="11" t="str">
+      <c r="N21" s="11" t="str">
         <f t="shared" si="1"/>
         <v>KrediKartiFirmaOdeme(20),</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>21</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C22" s="11">
         <v>55</v>
       </c>
-      <c r="C22" s="11">
+      <c r="D22" s="11">
         <v>27</v>
       </c>
-      <c r="D22" s="11">
+      <c r="E22" s="11">
         <v>1</v>
       </c>
-      <c r="E22" s="11">
-        <v>0</v>
-      </c>
-      <c r="F22" s="23" t="s">
+      <c r="F22" s="11">
+        <v>0</v>
+      </c>
+      <c r="G22" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="I22" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="I22" s="11" t="s">
+      <c r="J22" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="J22" s="11" t="str">
+      <c r="K22" s="11" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO TblMikroHrkTip VALUES( 21,55,27,1,0,'Gider Makbuzu(Alacak)')</v>
       </c>
-      <c r="K22" s="11">
+      <c r="L22" s="11">
         <v>27</v>
       </c>
-      <c r="L22" s="11" t="s">
+      <c r="M22" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="M22" s="11" t="str">
+      <c r="N22" s="11" t="str">
         <f t="shared" si="1"/>
         <v>GiderMakbuzu(21),</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>22</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C23" s="11">
         <v>67</v>
       </c>
-      <c r="C23" s="11">
+      <c r="D23" s="11">
         <v>3</v>
       </c>
-      <c r="D23" s="11">
-        <v>0</v>
-      </c>
       <c r="E23" s="11">
         <v>0</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="11">
+        <v>0</v>
+      </c>
+      <c r="G23" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="I23" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="I23" s="11" t="s">
+      <c r="J23" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="J23" s="11" t="str">
+      <c r="K23" s="11" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO TblMikroHrkTip VALUES( 22,67,3,0,0,'Çek Verilen(Borç) (Firma Çek Çıkış)')</v>
       </c>
-      <c r="K23" s="11">
+      <c r="L23" s="11">
         <v>8</v>
       </c>
-      <c r="L23" s="11" t="s">
+      <c r="M23" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="M23" s="11" t="str">
+      <c r="N23" s="11" t="str">
         <f t="shared" si="1"/>
         <v>CekVerilen(22),</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>23</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C24" s="11">
         <v>31</v>
       </c>
-      <c r="C24" s="11">
+      <c r="D24" s="11">
         <v>5</v>
       </c>
-      <c r="D24" s="11">
-        <v>0</v>
-      </c>
       <c r="E24" s="11">
         <v>0</v>
       </c>
-      <c r="F24" s="22" t="s">
+      <c r="F24" s="11">
+        <v>0</v>
+      </c>
+      <c r="G24" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="H24" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="I24" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="I24" s="11" t="s">
+      <c r="J24" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="J24" s="11" t="str">
+      <c r="K24" s="11" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO TblMikroHrkTip VALUES( 23,31,5,0,0,'BD Borç Dekontu')</v>
       </c>
-      <c r="K24" s="11">
+      <c r="L24" s="11">
         <v>9</v>
       </c>
-      <c r="L24" s="11" t="s">
+      <c r="M24" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="M24" s="11" t="str">
+      <c r="N24" s="11" t="str">
         <f t="shared" si="1"/>
         <v>BorcDekontu(23),</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <v>24</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C25" s="11">
         <v>32</v>
       </c>
-      <c r="C25" s="11">
+      <c r="D25" s="11">
         <v>5</v>
       </c>
-      <c r="D25" s="11">
+      <c r="E25" s="11">
         <v>1</v>
       </c>
-      <c r="E25" s="11">
-        <v>0</v>
-      </c>
-      <c r="F25" s="22" t="s">
+      <c r="F25" s="11">
+        <v>0</v>
+      </c>
+      <c r="G25" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="H25" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="H25" s="11" t="s">
+      <c r="I25" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="I25" s="11" t="s">
+      <c r="J25" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="J25" s="11" t="str">
+      <c r="K25" s="11" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO TblMikroHrkTip VALUES( 24,32,5,1,0,'BD Alacak Dekontu')</v>
       </c>
-      <c r="K25" s="11">
+      <c r="L25" s="11">
         <v>10</v>
       </c>
-      <c r="L25" s="11" t="s">
+      <c r="M25" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="M25" s="11" t="str">
+      <c r="N25" s="11" t="str">
         <f t="shared" si="1"/>
         <v>AlacakDekontu(24),</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
         <v>25</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C26" s="11">
         <v>33</v>
       </c>
-      <c r="C26" s="11">
+      <c r="D26" s="11">
         <v>5</v>
       </c>
-      <c r="D26" s="11">
-        <v>0</v>
-      </c>
       <c r="E26" s="11">
         <v>0</v>
       </c>
-      <c r="F26" s="23" t="s">
+      <c r="F26" s="11">
+        <v>0</v>
+      </c>
+      <c r="G26" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="H26" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="I26" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="I26" s="11" t="s">
+      <c r="J26" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="J26" s="11" t="str">
+      <c r="K26" s="11" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO TblMikroHrkTip VALUES( 25,33,5,0,0,'Genel Amaçlı Virman Dekontu(Borç)')</v>
       </c>
-      <c r="K26" s="11">
+      <c r="L26" s="11">
         <v>11</v>
       </c>
-      <c r="L26" s="11" t="s">
+      <c r="M26" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="M26" s="11" t="str">
+      <c r="N26" s="11" t="str">
         <f t="shared" si="1"/>
         <v>GenelVirmanBorc(25),</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
         <v>26</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C27" s="11">
         <v>33</v>
       </c>
-      <c r="C27" s="11">
+      <c r="D27" s="11">
         <v>5</v>
       </c>
-      <c r="D27" s="11">
+      <c r="E27" s="11">
         <v>1</v>
       </c>
-      <c r="E27" s="11">
-        <v>0</v>
-      </c>
-      <c r="F27" s="23" t="s">
+      <c r="F27" s="11">
+        <v>0</v>
+      </c>
+      <c r="G27" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="I27" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="I27" s="11" t="s">
+      <c r="J27" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="J27" s="11" t="str">
+      <c r="K27" s="11" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO TblMikroHrkTip VALUES( 26,33,5,1,0,'Genel Amaçlı Virman Dekontu(Alacak)')</v>
       </c>
-      <c r="K27" s="11">
+      <c r="L27" s="11">
         <v>12</v>
       </c>
-      <c r="L27" s="11" t="s">
+      <c r="M27" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="M27" s="11" t="str">
+      <c r="N27" s="11" t="str">
         <f t="shared" si="1"/>
         <v>GenelVirmanAlacak(26),</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="11">
         <v>27</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C28" s="11">
         <v>57</v>
       </c>
-      <c r="C28" s="11">
+      <c r="D28" s="11">
         <v>5</v>
       </c>
-      <c r="D28" s="11">
-        <v>0</v>
-      </c>
       <c r="E28" s="11">
         <v>0</v>
       </c>
-      <c r="F28" s="23" t="s">
+      <c r="F28" s="11">
+        <v>0</v>
+      </c>
+      <c r="G28" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="H28" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="I28" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="I28" s="11" t="s">
+      <c r="J28" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="J28" s="11" t="str">
+      <c r="K28" s="11" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO TblMikroHrkTip VALUES( 27,57,5,0,0,'Cari Hesaplar Arası Virman (Borç)')</v>
       </c>
-      <c r="K28" s="11">
+      <c r="L28" s="11">
         <v>13</v>
       </c>
-      <c r="L28" s="11" t="s">
+      <c r="M28" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="M28" s="11" t="str">
+      <c r="N28" s="11" t="str">
         <f t="shared" si="1"/>
         <v>CariVirmanBorc(27),</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
         <v>28</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C29" s="11">
         <v>57</v>
       </c>
-      <c r="C29" s="11">
+      <c r="D29" s="11">
         <v>5</v>
       </c>
-      <c r="D29" s="11">
+      <c r="E29" s="11">
         <v>1</v>
       </c>
-      <c r="E29" s="11">
-        <v>0</v>
-      </c>
-      <c r="F29" s="23" t="s">
+      <c r="F29" s="11">
+        <v>0</v>
+      </c>
+      <c r="G29" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H29" s="11" t="s">
+      <c r="I29" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="I29" s="11" t="s">
+      <c r="J29" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="J29" s="11" t="str">
+      <c r="K29" s="11" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO TblMikroHrkTip VALUES( 28,57,5,1,0,'Cari Hesaplar Arası Virman (Alacak)')</v>
       </c>
-      <c r="K29" s="11">
+      <c r="L29" s="11">
         <v>14</v>
       </c>
-      <c r="L29" s="11" t="s">
+      <c r="M29" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="M29" s="11" t="str">
+      <c r="N29" s="11" t="str">
         <f t="shared" si="1"/>
         <v>CariVirmanAlacak(28),</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="11">
         <v>29</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C30" s="11">
         <v>110</v>
       </c>
-      <c r="C30" s="11">
+      <c r="D30" s="11">
         <v>5</v>
       </c>
-      <c r="D30" s="11">
-        <v>0</v>
-      </c>
       <c r="E30" s="11">
         <v>0</v>
       </c>
-      <c r="F30" s="23" t="s">
+      <c r="F30" s="11">
+        <v>0</v>
+      </c>
+      <c r="G30" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="H30" s="11" t="s">
+      <c r="I30" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="I30" s="11" t="s">
+      <c r="J30" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="J30" s="11" t="str">
+      <c r="K30" s="11" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO TblMikroHrkTip VALUES( 29,110,5,0,0,'Kasalar Arası Virman(Borç)')</v>
       </c>
-      <c r="K30" s="11">
+      <c r="L30" s="11">
         <v>15</v>
       </c>
-      <c r="L30" s="11" t="s">
+      <c r="M30" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="M30" s="11" t="str">
+      <c r="N30" s="11" t="str">
         <f t="shared" si="1"/>
         <v>KasaVirmanBorç(29),</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="11">
         <v>30</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C31" s="11">
         <v>110</v>
       </c>
-      <c r="C31" s="11">
+      <c r="D31" s="11">
         <v>5</v>
       </c>
-      <c r="D31" s="11">
+      <c r="E31" s="11">
         <v>1</v>
       </c>
-      <c r="E31" s="11">
-        <v>0</v>
-      </c>
-      <c r="F31" s="23" t="s">
+      <c r="F31" s="11">
+        <v>0</v>
+      </c>
+      <c r="G31" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="11" t="s">
+      <c r="I31" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="I31" s="11" t="s">
+      <c r="J31" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="J31" s="11" t="str">
+      <c r="K31" s="11" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO TblMikroHrkTip VALUES( 30,110,5,1,0,'Kasalar Arasi Virman(Alacak)')</v>
       </c>
-      <c r="K31" s="11">
+      <c r="L31" s="11">
         <v>16</v>
       </c>
-      <c r="L31" s="11" t="s">
+      <c r="M31" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="M31" s="11" t="str">
+      <c r="N31" s="11" t="str">
         <f t="shared" si="1"/>
         <v>KasaVirmanAlacak(30),</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="11">
         <v>31</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C32" s="11">
         <v>100</v>
       </c>
-      <c r="C32" s="11">
+      <c r="D32" s="11">
         <v>5</v>
       </c>
-      <c r="D32" s="11">
-        <v>0</v>
-      </c>
       <c r="E32" s="11">
         <v>0</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="11">
+        <v>0</v>
+      </c>
+      <c r="G32" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="J32" s="11" t="str">
+      <c r="K32" s="11" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO TblMikroHrkTip VALUES( 31,100,5,0,0,'Cari Borç Dekontu')</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="11">
         <v>32</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C33" s="11">
         <v>101</v>
       </c>
-      <c r="C33" s="11">
+      <c r="D33" s="11">
         <v>5</v>
       </c>
-      <c r="D33" s="11">
+      <c r="E33" s="11">
         <v>1</v>
       </c>
-      <c r="E33" s="11">
-        <v>0</v>
-      </c>
-      <c r="F33" s="11" t="s">
+      <c r="F33" s="11">
+        <v>0</v>
+      </c>
+      <c r="G33" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="J33" s="11" t="str">
+      <c r="K33" s="11" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO TblMikroHrkTip VALUES( 32,101,5,1,0,'Cari Alacak Dekontu')</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J31">
-    <sortCondition ref="I1"/>
+  <sortState ref="A2:K31">
+    <sortCondition ref="J1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2637,7 +2737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D138"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>

--- a/mikro-doc/Entegre Mikro İslem Tip Tablosu 14-10-2016.xlsx
+++ b/mikro-doc/Entegre Mikro İslem Tip Tablosu 14-10-2016.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="270" yWindow="525" windowWidth="21180" windowHeight="9405"/>
@@ -12,12 +12,12 @@
     <sheet name="Sayfa1" sheetId="2" r:id="rId3"/>
     <sheet name="Eski Hrk Tip" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="272">
   <si>
     <t>chaislemid</t>
   </si>
@@ -829,7 +829,10 @@
     <t xml:space="preserve">26:Stok Gider Pusulası </t>
   </si>
   <si>
-    <t>:</t>
+    <t>|</t>
+  </si>
+  <si>
+    <t>---</t>
   </si>
 </sst>
 </file>
@@ -963,7 +966,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1005,6 +1008,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="headerStyle" xfId="1"/>
@@ -1307,199 +1311,295 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" style="11" customWidth="1"/>
-    <col min="3" max="5" width="9.140625" style="11"/>
-    <col min="6" max="6" width="8.5703125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="47.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" style="11" customWidth="1"/>
-    <col min="9" max="9" width="34.7109375" style="11" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" style="11" customWidth="1"/>
-    <col min="11" max="11" width="21" style="11" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="11"/>
-    <col min="13" max="13" width="29.140625" style="11" customWidth="1"/>
-    <col min="14" max="14" width="26.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="11"/>
+    <col min="2" max="2" width="1.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="11"/>
+    <col min="4" max="4" width="1.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="11"/>
+    <col min="6" max="6" width="1.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="11"/>
+    <col min="8" max="8" width="1.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="1.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.5703125" style="11" customWidth="1"/>
+    <col min="14" max="14" width="1.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="34.7109375" style="11" customWidth="1"/>
+    <col min="16" max="16" width="1.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.140625" style="11" customWidth="1"/>
+    <col min="18" max="18" width="1.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21" style="11" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="11"/>
+    <col min="21" max="21" width="29.140625" style="11" customWidth="1"/>
+    <col min="22" max="22" width="26.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>222</v>
       </c>
+      <c r="B1" s="11" t="s">
+        <v>270</v>
+      </c>
       <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="H1" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="J1" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="L1" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="M1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="N1" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="O1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="P1" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q1" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="R1" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="S1" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="L1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="11" t="s">
+      <c r="T1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="11" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="11">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="O2" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q2" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="C2" s="11">
-        <v>0</v>
-      </c>
-      <c r="D2" s="11">
+      <c r="B3" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E3" s="11">
         <v>6</v>
       </c>
-      <c r="E2" s="11">
+      <c r="F3" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="G3" s="11">
         <v>1</v>
       </c>
-      <c r="F2" s="11">
-        <v>0</v>
-      </c>
-      <c r="G2" s="22" t="s">
+      <c r="H3" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="I3" s="11">
+        <v>0</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="K3" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="L3" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="O3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="P3" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q3" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="K2" s="11" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($K$1,"$1",A2),"$2",C2),"$3",D2),"$4",E2),"$5",F2),"$6",G2)</f>
+      <c r="R3" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="S3" s="11" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A3),"$2",C3),"$3",E3),"$4",G3),"$5",I3),"$6",K3)</f>
         <v>INSERT INTO TblMikroHrkTip VALUES( 1,0,6,1,0,'Alış Faturası')</v>
       </c>
-      <c r="L2" s="11">
+      <c r="T3" s="11">
         <v>17</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="U3" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="N2" s="11" t="str">
-        <f>M2&amp;"("&amp;A2&amp;"),"</f>
+      <c r="V3" s="11" t="str">
+        <f>U3&amp;"("&amp;A3&amp;"),"</f>
         <v>AlisFat(1),</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="11">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="C3" s="11">
-        <v>0</v>
-      </c>
-      <c r="D3" s="11">
+      <c r="B4" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E4" s="11">
         <v>6</v>
       </c>
-      <c r="E3" s="11">
+      <c r="F4" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="G4" s="11">
         <v>1</v>
       </c>
-      <c r="F3" s="11">
+      <c r="H4" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="I4" s="11">
         <v>1</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="J4" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="K4" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="L4" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="O4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="P4" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q4" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="K3" s="11" t="str">
-        <f t="shared" ref="K3:K33" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($K$1,"$1",A3),"$2",C3),"$3",D3),"$4",E3),"$5",F3),"$6",G3)</f>
+      <c r="R4" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="S4" s="11" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A4),"$2",C4),"$3",E4),"$4",G4),"$5",I4),"$6",K4)</f>
         <v>INSERT INTO TblMikroHrkTip VALUES( 2,0,6,1,1,'Müşt.den İade (Bozuk ve Saglam) Faturası')</v>
       </c>
-      <c r="L3" s="11">
+      <c r="T4" s="11">
         <v>29</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="U4" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="N3" s="11" t="str">
-        <f t="shared" ref="N3:N31" si="1">M3&amp;"("&amp;A3&amp;"),"</f>
+      <c r="V4" s="11" t="str">
+        <f>U4&amp;"("&amp;A4&amp;"),"</f>
         <v>MustIadeFat(2),</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="11">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
         <v>3</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="C4" s="11">
-        <v>63</v>
-      </c>
-      <c r="D4" s="11">
-        <v>6</v>
-      </c>
-      <c r="E4" s="11">
-        <v>0</v>
-      </c>
-      <c r="F4" s="11">
-        <v>0</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="K4" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO TblMikroHrkTip VALUES( 3,63,6,0,0,'Satış Faturasi')</v>
-      </c>
-      <c r="L4" s="11">
-        <v>18</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="N4" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>SatisFat(3),</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="11">
-        <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>270</v>
@@ -1507,515 +1607,803 @@
       <c r="C5" s="11">
         <v>63</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E5" s="11">
         <v>6</v>
       </c>
-      <c r="E5" s="11">
-        <v>0</v>
-      </c>
-      <c r="F5" s="11">
+      <c r="F5" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="S5" s="11" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A5),"$2",C5),"$3",E5),"$4",G5),"$5",I5),"$6",K5)</f>
+        <v>INSERT INTO TblMikroHrkTip VALUES( 3,63,6,0,0,'Satış Faturasi')</v>
+      </c>
+      <c r="T5" s="11">
+        <v>18</v>
+      </c>
+      <c r="U5" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="V5" s="11" t="str">
+        <f>U5&amp;"("&amp;A5&amp;"),"</f>
+        <v>SatisFat(3),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C6" s="11">
+        <v>63</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E6" s="11">
+        <v>6</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="I6" s="11">
         <v>1</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="J6" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="K6" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="L6" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="O6" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="P6" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q6" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="K5" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="R6" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="S6" s="11" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A6),"$2",C6),"$3",E6),"$4",G6),"$5",I6),"$6",K6)</f>
         <v>INSERT INTO TblMikroHrkTip VALUES( 4,63,6,0,1,'Satıcıya İade Faturası')</v>
       </c>
-      <c r="L5" s="11">
+      <c r="T6" s="11">
         <v>30</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="U6" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="N5" s="11" t="str">
-        <f t="shared" si="1"/>
+      <c r="V6" s="11" t="str">
+        <f>U6&amp;"("&amp;A6&amp;"),"</f>
         <v>SatIadeFat(4),</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="11">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="C6" s="11">
-        <v>0</v>
-      </c>
-      <c r="D6" s="11">
+      <c r="B7" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E7" s="11">
         <v>8</v>
       </c>
-      <c r="E6" s="11">
+      <c r="F7" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="G7" s="11">
         <v>1</v>
       </c>
-      <c r="F6" s="11">
-        <v>0</v>
-      </c>
-      <c r="G6" s="22" t="s">
+      <c r="H7" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="K7" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="L7" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="O7" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="P7" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q7" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="K6" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="R7" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="S7" s="11" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A7),"$2",C7),"$3",E7),"$4",G7),"$5",I7),"$6",K7)</f>
         <v>INSERT INTO TblMikroHrkTip VALUES( 5,0,8,1,0,'Alınan Hizmet Faturası')</v>
       </c>
-      <c r="L6" s="11">
+      <c r="T7" s="11">
         <v>19</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="U7" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="N6" s="11" t="str">
-        <f t="shared" si="1"/>
+      <c r="V7" s="11" t="str">
+        <f>U7&amp;"("&amp;A7&amp;"),"</f>
         <v>AlinanHizFat(5),</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="11">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="C7" s="11">
+      <c r="B8" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C8" s="11">
         <v>63</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D8" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E8" s="11">
         <v>8</v>
       </c>
-      <c r="E7" s="11">
-        <v>0</v>
-      </c>
-      <c r="F7" s="11">
-        <v>0</v>
-      </c>
-      <c r="G7" s="22" t="s">
+      <c r="F8" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="K8" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="L8" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="O8" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="P8" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q8" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="K7" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="R8" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="S8" s="11" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A8),"$2",C8),"$3",E8),"$4",G8),"$5",I8),"$6",K8)</f>
         <v>INSERT INTO TblMikroHrkTip VALUES( 6,63,8,0,0,'Verilen Hizmet Faturası')</v>
       </c>
-      <c r="L7" s="11">
+      <c r="T8" s="11">
         <v>20</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="U8" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="N7" s="11" t="str">
-        <f t="shared" si="1"/>
+      <c r="V8" s="11" t="str">
+        <f>U8&amp;"("&amp;A8&amp;"),"</f>
         <v>VerHizFat(6),</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="24">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" s="24">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="C8" s="11">
+      <c r="B9" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C9" s="11">
         <v>1</v>
       </c>
-      <c r="D8" s="11">
-        <v>0</v>
-      </c>
-      <c r="E8" s="11">
+      <c r="D9" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="G9" s="11">
         <v>1</v>
       </c>
-      <c r="F8" s="11">
-        <v>0</v>
-      </c>
-      <c r="G8" s="22" t="s">
+      <c r="H9" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="K9" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="L9" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="O9" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="P9" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q9" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="K8" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="R9" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="S9" s="11" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A9),"$2",C9),"$3",E9),"$4",G9),"$5",I9),"$6",K9)</f>
         <v>INSERT INTO TblMikroHrkTip VALUES( 7,1,0,1,0,'Nakit Tahsilat')</v>
       </c>
-      <c r="L8" s="11">
+      <c r="T9" s="11">
         <v>1</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="U9" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="N8" s="11" t="str">
-        <f t="shared" si="1"/>
+      <c r="V9" s="11" t="str">
+        <f>U9&amp;"("&amp;A9&amp;"),"</f>
         <v>NakitTah(7),</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="24">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" s="24">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="C9" s="11">
+      <c r="B10" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C10" s="11">
         <v>34</v>
       </c>
-      <c r="D9" s="11">
-        <v>0</v>
-      </c>
-      <c r="E9" s="11">
+      <c r="D10" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="G10" s="11">
         <v>1</v>
       </c>
-      <c r="F9" s="11">
-        <v>0</v>
-      </c>
-      <c r="G9" s="22" t="s">
+      <c r="H10" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="K10" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="L10" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="O10" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="P10" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q10" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="K9" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="R10" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="S10" s="11" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A10),"$2",C10),"$3",E10),"$4",G10),"$5",I10),"$6",K10)</f>
         <v>INSERT INTO TblMikroHrkTip VALUES( 8,34,0,1,0,'Havale (Alacak)')</v>
       </c>
-      <c r="L9" s="11">
+      <c r="T10" s="11">
         <v>2</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="U10" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="N9" s="11" t="str">
-        <f t="shared" si="1"/>
+      <c r="V10" s="11" t="str">
+        <f>U10&amp;"("&amp;A10&amp;"),"</f>
         <v>HavaleAlacak(8),</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="11">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="C10" s="11">
+      <c r="B11" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C11" s="11">
         <v>35</v>
       </c>
-      <c r="D10" s="11">
-        <v>0</v>
-      </c>
-      <c r="E10" s="11">
-        <v>0</v>
-      </c>
-      <c r="F10" s="11">
-        <v>0</v>
-      </c>
-      <c r="G10" s="22" t="s">
+      <c r="D11" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="K11" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="L11" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="O11" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="P11" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q11" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="K10" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="R11" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="S11" s="11" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A11),"$2",C11),"$3",E11),"$4",G11),"$5",I11),"$6",K11)</f>
         <v>INSERT INTO TblMikroHrkTip VALUES( 9,35,0,0,0,'Havale Ödeme (Borç)(Gönderilen)')</v>
       </c>
-      <c r="L10" s="11">
+      <c r="T11" s="11">
         <v>3</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="U11" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="N10" s="11" t="str">
-        <f t="shared" si="1"/>
+      <c r="V11" s="11" t="str">
+        <f>U11&amp;"("&amp;A11&amp;"),"</f>
         <v>HavaleBorc(9),</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="C11" s="11">
+      <c r="B12" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C12" s="11">
         <v>37</v>
       </c>
-      <c r="D11" s="11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="11">
+      <c r="D12" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E12" s="11">
+        <v>0</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="G12" s="11">
         <v>1</v>
       </c>
-      <c r="F11" s="11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="23" t="s">
+      <c r="H12" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="I12" s="11">
+        <v>0</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="K12" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="L12" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="O12" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="P12" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q12" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="K11" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="R12" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="S12" s="11" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A12),"$2",C12),"$3",E12),"$4",G12),"$5",I12),"$6",K12)</f>
         <v>INSERT INTO TblMikroHrkTip VALUES( 10,37,0,1,0,'Kasa Masraf Fişi (Alacak)')</v>
       </c>
-      <c r="L11" s="11">
+      <c r="T12" s="11">
         <v>28</v>
       </c>
-      <c r="M11" s="11" t="s">
+      <c r="U12" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="N11" s="11" t="str">
-        <f t="shared" si="1"/>
+      <c r="V12" s="11" t="str">
+        <f>U12&amp;"("&amp;A12&amp;"),"</f>
         <v>KasaMasrafFis(10),</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="24">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" s="24">
         <v>11</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="C12" s="11">
+      <c r="B13" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C13" s="11">
         <v>4</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D13" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E13" s="11">
         <v>1</v>
       </c>
-      <c r="E12" s="11">
+      <c r="F13" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="G13" s="11">
         <v>1</v>
       </c>
-      <c r="F12" s="11">
-        <v>0</v>
-      </c>
-      <c r="G12" s="22" t="s">
+      <c r="H13" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="K13" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="L13" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="O13" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="P13" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q13" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="K12" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="R13" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="S13" s="11" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A13),"$2",C13),"$3",E13),"$4",G13),"$5",I13),"$6",K13)</f>
         <v>INSERT INTO TblMikroHrkTip VALUES( 11,4,1,1,0,'Çek Alınan (Müşteri Çek Giriş)')</v>
       </c>
-      <c r="L12" s="11">
+      <c r="T13" s="11">
         <v>4</v>
       </c>
-      <c r="M12" s="11" t="s">
+      <c r="U13" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="N12" s="11" t="str">
-        <f t="shared" si="1"/>
+      <c r="V13" s="11" t="str">
+        <f>U13&amp;"("&amp;A13&amp;"),"</f>
         <v>CekGiris(11),</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="11">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" s="11">
         <v>12</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="C13" s="11">
+      <c r="B14" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C14" s="11">
         <v>5</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D14" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E14" s="11">
         <v>1</v>
       </c>
-      <c r="E13" s="11">
-        <v>0</v>
-      </c>
-      <c r="F13" s="11">
-        <v>0</v>
-      </c>
-      <c r="G13" s="22" t="s">
+      <c r="F14" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="K14" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="L14" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="O14" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="P14" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q14" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="K13" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="R14" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="S14" s="11" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A14),"$2",C14),"$3",E14),"$4",G14),"$5",I14),"$6",K14)</f>
         <v>INSERT INTO TblMikroHrkTip VALUES( 12,5,1,0,0,'Portföydeki Çek Nakit (Borç)')</v>
       </c>
-      <c r="L13" s="11">
+      <c r="T14" s="11">
         <v>5</v>
       </c>
-      <c r="M13" s="11" t="s">
+      <c r="U14" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="N13" s="11" t="str">
-        <f t="shared" si="1"/>
+      <c r="V14" s="11" t="str">
+        <f>U14&amp;"("&amp;A14&amp;"),"</f>
         <v>PortfoyCek(12),</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="11">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15" s="11">
         <v>13</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="C14" s="11">
+      <c r="B15" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C15" s="11">
         <v>11</v>
       </c>
-      <c r="D14" s="11">
-        <v>1</v>
-      </c>
-      <c r="E14" s="11">
-        <v>0</v>
-      </c>
-      <c r="F14" s="11">
-        <v>0</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="K14" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO TblMikroHrkTip VALUES( 13,11,1,0,0,'Takas Çek Çıkış (Borç)')</v>
-      </c>
-      <c r="L14" s="11">
-        <v>6</v>
-      </c>
-      <c r="M14" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="N14" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>TakasCekBorc(13),</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="11">
-        <v>14</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="C15" s="11">
-        <v>14</v>
-      </c>
-      <c r="D15" s="11">
-        <v>1</v>
+      <c r="D15" s="11" t="s">
+        <v>270</v>
       </c>
       <c r="E15" s="11">
         <v>1</v>
       </c>
-      <c r="F15" s="11">
-        <v>0</v>
-      </c>
-      <c r="G15" s="22" t="s">
+      <c r="F15" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="G15" s="11">
+        <v>0</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="I15" s="11">
+        <v>0</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="K15" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="O15" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="P15" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q15" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="R15" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="S15" s="11" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A15),"$2",C15),"$3",E15),"$4",G15),"$5",I15),"$6",K15)</f>
+        <v>INSERT INTO TblMikroHrkTip VALUES( 13,11,1,0,0,'Takas Çek Çıkış (Borç)')</v>
+      </c>
+      <c r="T15" s="11">
+        <v>6</v>
+      </c>
+      <c r="U15" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="V15" s="11" t="str">
+        <f>U15&amp;"("&amp;A15&amp;"),"</f>
+        <v>TakasCekBorc(13),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A16" s="11">
+        <v>14</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C16" s="11">
+        <v>14</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E16" s="11">
+        <v>1</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="G16" s="11">
+        <v>1</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="I16" s="11">
+        <v>0</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="K16" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="L16" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="O16" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="P16" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q16" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="K15" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="R16" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="S16" s="11" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A16),"$2",C16),"$3",E16),"$4",G16),"$5",I16),"$6",K16)</f>
         <v>INSERT INTO TblMikroHrkTip VALUES( 14,14,1,1,0,'Takas Çek Ödeme (Alacak)')</v>
       </c>
-      <c r="L15" s="11">
+      <c r="T16" s="11">
         <v>7</v>
       </c>
-      <c r="M15" s="11" t="s">
+      <c r="U16" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="N15" s="11" t="str">
-        <f t="shared" si="1"/>
+      <c r="V16" s="11" t="str">
+        <f>U16&amp;"("&amp;A16&amp;"),"</f>
         <v>TakasCekAlacak(14),</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="11">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A17" s="11">
         <v>15</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="C16" s="11">
-        <v>29</v>
-      </c>
-      <c r="D16" s="11">
-        <v>16</v>
-      </c>
-      <c r="E16" s="11">
-        <v>0</v>
-      </c>
-      <c r="F16" s="11">
-        <v>0</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="K16" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO TblMikroHrkTip VALUES( 15,29,16,0,0,'Açılış (Borç)')</v>
-      </c>
-      <c r="L16" s="11">
-        <v>21</v>
-      </c>
-      <c r="M16" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="N16" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>AcilisBorc(15),</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="11">
-        <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>270</v>
@@ -2023,438 +2411,675 @@
       <c r="C17" s="11">
         <v>29</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E17" s="11">
         <v>16</v>
       </c>
-      <c r="E17" s="11">
+      <c r="F17" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="G17" s="11">
+        <v>0</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="K17" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="O17" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="P17" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q17" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="R17" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="S17" s="11" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A17),"$2",C17),"$3",E17),"$4",G17),"$5",I17),"$6",K17)</f>
+        <v>INSERT INTO TblMikroHrkTip VALUES( 15,29,16,0,0,'Açılış (Borç)')</v>
+      </c>
+      <c r="T17" s="11">
+        <v>21</v>
+      </c>
+      <c r="U17" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="V17" s="11" t="str">
+        <f>U17&amp;"("&amp;A17&amp;"),"</f>
+        <v>AcilisBorc(15),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18" s="11">
+        <v>16</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C18" s="11">
+        <v>29</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E18" s="11">
+        <v>16</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="G18" s="11">
         <v>1</v>
       </c>
-      <c r="F17" s="11">
-        <v>0</v>
-      </c>
-      <c r="G17" s="23" t="s">
+      <c r="H18" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="I18" s="11">
+        <v>0</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="K18" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="L18" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="O18" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="P18" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q18" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="K17" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="R18" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="S18" s="11" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A18),"$2",C18),"$3",E18),"$4",G18),"$5",I18),"$6",K18)</f>
         <v>INSERT INTO TblMikroHrkTip VALUES( 16,29,16,1,0,'Açılış (Alacak)')</v>
       </c>
-      <c r="L17" s="11">
+      <c r="T18" s="11">
         <v>22</v>
       </c>
-      <c r="M17" s="11" t="s">
+      <c r="U18" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="N17" s="11" t="str">
-        <f t="shared" si="1"/>
+      <c r="V18" s="11" t="str">
+        <f>U18&amp;"("&amp;A18&amp;"),"</f>
         <v>AcilisAlacak(16),</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="24">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A19" s="24">
         <v>17</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="C18" s="11">
+      <c r="B19" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C19" s="11">
         <v>1</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D19" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E19" s="11">
         <v>19</v>
       </c>
-      <c r="E18" s="11">
+      <c r="F19" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="G19" s="11">
         <v>1</v>
       </c>
-      <c r="F18" s="11">
-        <v>0</v>
-      </c>
-      <c r="G18" s="22" t="s">
+      <c r="H19" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="K19" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="L19" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="O19" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="P19" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q19" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="K18" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="R19" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="S19" s="11" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A19),"$2",C19),"$3",E19),"$4",G19),"$5",I19),"$6",K19)</f>
         <v>INSERT INTO TblMikroHrkTip VALUES( 17,1,19,1,0,'Kredi Kartı Tahsilatı (Müşteri)')</v>
       </c>
-      <c r="L18" s="11">
+      <c r="T19" s="11">
         <v>23</v>
       </c>
-      <c r="M18" s="11" t="s">
+      <c r="U19" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="N18" s="11" t="str">
-        <f t="shared" si="1"/>
+      <c r="V19" s="11" t="str">
+        <f>U19&amp;"("&amp;A19&amp;"),"</f>
         <v>KrediKartiTahsilati(17),</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="23">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A20" s="23">
         <v>18</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="C19" s="11">
+      <c r="B20" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C20" s="11">
         <v>54</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D20" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E20" s="11">
         <v>19</v>
       </c>
-      <c r="E19" s="11">
-        <v>0</v>
-      </c>
-      <c r="F19" s="11">
-        <v>0</v>
-      </c>
-      <c r="G19" s="22" t="s">
+      <c r="F20" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="G20" s="11">
+        <v>0</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="I20" s="11">
+        <v>0</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="K20" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="L20" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="O20" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="P20" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q20" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="K19" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="R20" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="S20" s="11" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A20),"$2",C20),"$3",E20),"$4",G20),"$5",I20),"$6",K20)</f>
         <v>INSERT INTO TblMikroHrkTip VALUES( 18,54,19,0,0,'Kredi Kartı Ödeme(Borç)')</v>
       </c>
-      <c r="L19" s="11">
+      <c r="T20" s="11">
         <v>24</v>
       </c>
-      <c r="M19" s="11" t="s">
+      <c r="U20" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="N19" s="11" t="str">
-        <f t="shared" si="1"/>
+      <c r="V20" s="11" t="str">
+        <f>U20&amp;"("&amp;A20&amp;"),"</f>
         <v>KrediKartiOdeme(18),</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="11">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A21" s="11">
         <v>19</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="C20" s="11">
+      <c r="B21" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C21" s="11">
         <v>104</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D21" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E21" s="11">
         <v>19</v>
       </c>
-      <c r="E20" s="11">
-        <v>0</v>
-      </c>
-      <c r="F20" s="11">
-        <v>0</v>
-      </c>
-      <c r="G20" s="23" t="s">
+      <c r="F21" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="G21" s="11">
+        <v>0</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="I21" s="11">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="K21" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="L21" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="O21" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="P21" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q21" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="K20" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="R21" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="S21" s="11" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A21),"$2",C21),"$3",E21),"$4",G21),"$5",I21),"$6",K21)</f>
         <v>INSERT INTO TblMikroHrkTip VALUES( 19,104,19,0,0,'Bankalar Arası Kredi Kartı Transferi(Borç)')</v>
       </c>
-      <c r="L20" s="11">
+      <c r="T21" s="11">
         <v>25</v>
       </c>
-      <c r="M20" s="11" t="s">
+      <c r="U21" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="N20" s="11" t="str">
-        <f t="shared" si="1"/>
+      <c r="V21" s="11" t="str">
+        <f>U21&amp;"("&amp;A21&amp;"),"</f>
         <v>BankArasiKKTransfer(19),</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="11">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A22" s="11">
         <v>20</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="C21" s="11">
+      <c r="B22" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C22" s="11">
         <v>64</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D22" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E22" s="11">
         <v>22</v>
       </c>
-      <c r="E21" s="11">
-        <v>0</v>
-      </c>
-      <c r="F21" s="11">
-        <v>0</v>
-      </c>
-      <c r="G21" s="22" t="s">
+      <c r="F22" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="G22" s="11">
+        <v>0</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="I22" s="11">
+        <v>0</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="K22" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="L22" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="N22" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="O22" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="P22" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q22" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="K21" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="R22" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="S22" s="11" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A22),"$2",C22),"$3",E22),"$4",G22),"$5",I22),"$6",K22)</f>
         <v>INSERT INTO TblMikroHrkTip VALUES( 20,64,22,0,0,'Kredi Kartı Ödeme(Firma)(Borç)Tediye Makbuzu')</v>
       </c>
-      <c r="L21" s="11">
+      <c r="T22" s="11">
         <v>26</v>
       </c>
-      <c r="M21" s="11" t="s">
+      <c r="U22" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="N21" s="11" t="str">
-        <f t="shared" si="1"/>
+      <c r="V22" s="11" t="str">
+        <f>U22&amp;"("&amp;A22&amp;"),"</f>
         <v>KrediKartiFirmaOdeme(20),</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="11">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A23" s="11">
         <v>21</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="C22" s="11">
+      <c r="B23" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C23" s="11">
         <v>55</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D23" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E23" s="11">
         <v>27</v>
       </c>
-      <c r="E22" s="11">
+      <c r="F23" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="G23" s="11">
         <v>1</v>
       </c>
-      <c r="F22" s="11">
-        <v>0</v>
-      </c>
-      <c r="G22" s="23" t="s">
+      <c r="H23" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="I23" s="11">
+        <v>0</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="K23" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="I22" s="11" t="s">
+      <c r="L23" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="O23" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="J22" s="11" t="s">
+      <c r="P23" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q23" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="K22" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="R23" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="S23" s="11" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A23),"$2",C23),"$3",E23),"$4",G23),"$5",I23),"$6",K23)</f>
         <v>INSERT INTO TblMikroHrkTip VALUES( 21,55,27,1,0,'Gider Makbuzu(Alacak)')</v>
       </c>
-      <c r="L22" s="11">
+      <c r="T23" s="11">
         <v>27</v>
       </c>
-      <c r="M22" s="11" t="s">
+      <c r="U23" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="N22" s="11" t="str">
-        <f t="shared" si="1"/>
+      <c r="V23" s="11" t="str">
+        <f>U23&amp;"("&amp;A23&amp;"),"</f>
         <v>GiderMakbuzu(21),</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="11">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A24" s="11">
         <v>22</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="C23" s="11">
+      <c r="B24" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C24" s="11">
         <v>67</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D24" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E24" s="11">
         <v>3</v>
       </c>
-      <c r="E23" s="11">
-        <v>0</v>
-      </c>
-      <c r="F23" s="11">
-        <v>0</v>
-      </c>
-      <c r="G23" s="22" t="s">
+      <c r="F24" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="G24" s="11">
+        <v>0</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="I24" s="11">
+        <v>0</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="K24" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="I23" s="11" t="s">
+      <c r="L24" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="N24" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="O24" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="J23" s="11" t="s">
+      <c r="P24" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q24" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="K23" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="R24" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="S24" s="11" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A24),"$2",C24),"$3",E24),"$4",G24),"$5",I24),"$6",K24)</f>
         <v>INSERT INTO TblMikroHrkTip VALUES( 22,67,3,0,0,'Çek Verilen(Borç) (Firma Çek Çıkış)')</v>
       </c>
-      <c r="L23" s="11">
+      <c r="T24" s="11">
         <v>8</v>
       </c>
-      <c r="M23" s="11" t="s">
+      <c r="U24" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="N23" s="11" t="str">
-        <f t="shared" si="1"/>
+      <c r="V24" s="11" t="str">
+        <f>U24&amp;"("&amp;A24&amp;"),"</f>
         <v>CekVerilen(22),</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="11">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A25" s="11">
         <v>23</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="C24" s="11">
+      <c r="B25" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C25" s="11">
         <v>31</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D25" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E25" s="11">
         <v>5</v>
       </c>
-      <c r="E24" s="11">
-        <v>0</v>
-      </c>
-      <c r="F24" s="11">
-        <v>0</v>
-      </c>
-      <c r="G24" s="22" t="s">
+      <c r="F25" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="G25" s="11">
+        <v>0</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="I25" s="11">
+        <v>0</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="K25" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="L25" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="M25" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="I24" s="11" t="s">
+      <c r="N25" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="O25" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="J24" s="11" t="s">
+      <c r="P25" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q25" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="K24" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="R25" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="S25" s="11" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A25),"$2",C25),"$3",E25),"$4",G25),"$5",I25),"$6",K25)</f>
         <v>INSERT INTO TblMikroHrkTip VALUES( 23,31,5,0,0,'BD Borç Dekontu')</v>
       </c>
-      <c r="L24" s="11">
+      <c r="T25" s="11">
         <v>9</v>
       </c>
-      <c r="M24" s="11" t="s">
+      <c r="U25" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="N24" s="11" t="str">
-        <f t="shared" si="1"/>
+      <c r="V25" s="11" t="str">
+        <f>U25&amp;"("&amp;A25&amp;"),"</f>
         <v>BorcDekontu(23),</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="11">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A26" s="11">
         <v>24</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="C25" s="11">
+      <c r="B26" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C26" s="11">
         <v>32</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D26" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E26" s="11">
         <v>5</v>
       </c>
-      <c r="E25" s="11">
+      <c r="F26" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="G26" s="11">
         <v>1</v>
       </c>
-      <c r="F25" s="11">
-        <v>0</v>
-      </c>
-      <c r="G25" s="22" t="s">
+      <c r="H26" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="I26" s="11">
+        <v>0</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="K26" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="11" t="s">
+      <c r="L26" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="M26" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="I25" s="11" t="s">
+      <c r="N26" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="O26" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="J25" s="11" t="s">
+      <c r="P26" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q26" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="K25" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="R26" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="S26" s="11" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A26),"$2",C26),"$3",E26),"$4",G26),"$5",I26),"$6",K26)</f>
         <v>INSERT INTO TblMikroHrkTip VALUES( 24,32,5,1,0,'BD Alacak Dekontu')</v>
       </c>
-      <c r="L25" s="11">
+      <c r="T26" s="11">
         <v>10</v>
       </c>
-      <c r="M25" s="11" t="s">
+      <c r="U26" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="N25" s="11" t="str">
-        <f t="shared" si="1"/>
+      <c r="V26" s="11" t="str">
+        <f>U26&amp;"("&amp;A26&amp;"),"</f>
         <v>AlacakDekontu(24),</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="11">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A27" s="11">
         <v>25</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="C26" s="11">
-        <v>33</v>
-      </c>
-      <c r="D26" s="11">
-        <v>5</v>
-      </c>
-      <c r="E26" s="11">
-        <v>0</v>
-      </c>
-      <c r="F26" s="11">
-        <v>0</v>
-      </c>
-      <c r="G26" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="J26" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="K26" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO TblMikroHrkTip VALUES( 25,33,5,0,0,'Genel Amaçlı Virman Dekontu(Borç)')</v>
-      </c>
-      <c r="L26" s="11">
-        <v>11</v>
-      </c>
-      <c r="M26" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="N26" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>GenelVirmanBorc(25),</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="11">
-        <v>26</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>270</v>
@@ -2462,88 +3087,136 @@
       <c r="C27" s="11">
         <v>33</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E27" s="11">
         <v>5</v>
       </c>
-      <c r="E27" s="11">
+      <c r="F27" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="G27" s="11">
+        <v>0</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="I27" s="11">
+        <v>0</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="K27" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="L27" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N27" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="O27" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="P27" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q27" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="R27" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="S27" s="11" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A27),"$2",C27),"$3",E27),"$4",G27),"$5",I27),"$6",K27)</f>
+        <v>INSERT INTO TblMikroHrkTip VALUES( 25,33,5,0,0,'Genel Amaçlı Virman Dekontu(Borç)')</v>
+      </c>
+      <c r="T27" s="11">
+        <v>11</v>
+      </c>
+      <c r="U27" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="V27" s="11" t="str">
+        <f>U27&amp;"("&amp;A27&amp;"),"</f>
+        <v>GenelVirmanBorc(25),</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A28" s="11">
+        <v>26</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C28" s="11">
+        <v>33</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E28" s="11">
+        <v>5</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="G28" s="11">
         <v>1</v>
       </c>
-      <c r="F27" s="11">
-        <v>0</v>
-      </c>
-      <c r="G27" s="23" t="s">
+      <c r="H28" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="I28" s="11">
+        <v>0</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="K28" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="11" t="s">
+      <c r="L28" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="N28" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="O28" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="J27" s="11" t="s">
+      <c r="P28" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q28" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="K27" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="R28" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="S28" s="11" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A28),"$2",C28),"$3",E28),"$4",G28),"$5",I28),"$6",K28)</f>
         <v>INSERT INTO TblMikroHrkTip VALUES( 26,33,5,1,0,'Genel Amaçlı Virman Dekontu(Alacak)')</v>
       </c>
-      <c r="L27" s="11">
+      <c r="T28" s="11">
         <v>12</v>
       </c>
-      <c r="M27" s="11" t="s">
+      <c r="U28" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="N27" s="11" t="str">
-        <f t="shared" si="1"/>
+      <c r="V28" s="11" t="str">
+        <f>U28&amp;"("&amp;A28&amp;"),"</f>
         <v>GenelVirmanAlacak(26),</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="11">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A29" s="11">
         <v>27</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="C28" s="11">
-        <v>57</v>
-      </c>
-      <c r="D28" s="11">
-        <v>5</v>
-      </c>
-      <c r="E28" s="11">
-        <v>0</v>
-      </c>
-      <c r="F28" s="11">
-        <v>0</v>
-      </c>
-      <c r="G28" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="J28" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="K28" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO TblMikroHrkTip VALUES( 27,57,5,0,0,'Cari Hesaplar Arası Virman (Borç)')</v>
-      </c>
-      <c r="L28" s="11">
-        <v>13</v>
-      </c>
-      <c r="M28" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="N28" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>CariVirmanBorc(27),</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="11">
-        <v>28</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>270</v>
@@ -2551,85 +3224,136 @@
       <c r="C29" s="11">
         <v>57</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E29" s="11">
         <v>5</v>
       </c>
-      <c r="E29" s="11">
+      <c r="F29" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="G29" s="11">
+        <v>0</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="I29" s="11">
+        <v>0</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="K29" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="N29" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="O29" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="P29" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q29" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="R29" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="S29" s="11" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A29),"$2",C29),"$3",E29),"$4",G29),"$5",I29),"$6",K29)</f>
+        <v>INSERT INTO TblMikroHrkTip VALUES( 27,57,5,0,0,'Cari Hesaplar Arası Virman (Borç)')</v>
+      </c>
+      <c r="T29" s="11">
+        <v>13</v>
+      </c>
+      <c r="U29" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="V29" s="11" t="str">
+        <f>U29&amp;"("&amp;A29&amp;"),"</f>
+        <v>CariVirmanBorc(27),</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A30" s="11">
+        <v>28</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C30" s="11">
+        <v>57</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E30" s="11">
+        <v>5</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="G30" s="11">
         <v>1</v>
       </c>
-      <c r="F29" s="11">
-        <v>0</v>
-      </c>
-      <c r="G29" s="23" t="s">
+      <c r="H30" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="I30" s="11">
+        <v>0</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="K30" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="I29" s="11" t="s">
+      <c r="L30" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="O30" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="J29" s="11" t="s">
+      <c r="P30" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q30" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="K29" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="R30" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="S30" s="11" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A30),"$2",C30),"$3",E30),"$4",G30),"$5",I30),"$6",K30)</f>
         <v>INSERT INTO TblMikroHrkTip VALUES( 28,57,5,1,0,'Cari Hesaplar Arası Virman (Alacak)')</v>
       </c>
-      <c r="L29" s="11">
+      <c r="T30" s="11">
         <v>14</v>
       </c>
-      <c r="M29" s="11" t="s">
+      <c r="U30" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="N29" s="11" t="str">
-        <f t="shared" si="1"/>
+      <c r="V30" s="11" t="str">
+        <f>U30&amp;"("&amp;A30&amp;"),"</f>
         <v>CariVirmanAlacak(28),</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="11">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A31" s="11">
         <v>29</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="C30" s="11">
-        <v>110</v>
-      </c>
-      <c r="D30" s="11">
-        <v>5</v>
-      </c>
-      <c r="E30" s="11">
-        <v>0</v>
-      </c>
-      <c r="F30" s="11">
-        <v>0</v>
-      </c>
-      <c r="G30" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="K30" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO TblMikroHrkTip VALUES( 29,110,5,0,0,'Kasalar Arası Virman(Borç)')</v>
-      </c>
-      <c r="L30" s="11">
-        <v>15</v>
-      </c>
-      <c r="M30" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="N30" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>KasaVirmanBorç(29),</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="11">
-        <v>30</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>270</v>
@@ -2637,96 +3361,235 @@
       <c r="C31" s="11">
         <v>110</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E31" s="11">
         <v>5</v>
       </c>
-      <c r="E31" s="11">
+      <c r="F31" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="G31" s="11">
+        <v>0</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="I31" s="11">
+        <v>0</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="K31" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="N31" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="O31" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="P31" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q31" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="R31" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="S31" s="11" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A31),"$2",C31),"$3",E31),"$4",G31),"$5",I31),"$6",K31)</f>
+        <v>INSERT INTO TblMikroHrkTip VALUES( 29,110,5,0,0,'Kasalar Arası Virman(Borç)')</v>
+      </c>
+      <c r="T31" s="11">
+        <v>15</v>
+      </c>
+      <c r="U31" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="V31" s="11" t="str">
+        <f>U31&amp;"("&amp;A31&amp;"),"</f>
+        <v>KasaVirmanBorç(29),</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A32" s="11">
+        <v>30</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C32" s="11">
+        <v>110</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E32" s="11">
+        <v>5</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="G32" s="11">
         <v>1</v>
       </c>
-      <c r="F31" s="11">
-        <v>0</v>
-      </c>
-      <c r="G31" s="23" t="s">
+      <c r="H32" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="I32" s="11">
+        <v>0</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="K32" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I31" s="11" t="s">
+      <c r="L32" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="N32" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="O32" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="J31" s="11" t="s">
+      <c r="P32" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q32" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="K31" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="R32" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="S32" s="11" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A32),"$2",C32),"$3",E32),"$4",G32),"$5",I32),"$6",K32)</f>
         <v>INSERT INTO TblMikroHrkTip VALUES( 30,110,5,1,0,'Kasalar Arasi Virman(Alacak)')</v>
       </c>
-      <c r="L31" s="11">
+      <c r="T32" s="11">
         <v>16</v>
       </c>
-      <c r="M31" s="11" t="s">
+      <c r="U32" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="N31" s="11" t="str">
-        <f t="shared" si="1"/>
+      <c r="V32" s="11" t="str">
+        <f>U32&amp;"("&amp;A32&amp;"),"</f>
         <v>KasaVirmanAlacak(30),</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="11">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A33" s="11">
         <v>31</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="C32" s="11">
+      <c r="B33" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C33" s="11">
         <v>100</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D33" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E33" s="11">
         <v>5</v>
       </c>
-      <c r="E32" s="11">
-        <v>0</v>
-      </c>
-      <c r="F32" s="11">
-        <v>0</v>
-      </c>
-      <c r="G32" s="11" t="s">
+      <c r="F33" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="G33" s="11">
+        <v>0</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="I33" s="11">
+        <v>0</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="K33" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="K32" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="L33" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="N33" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="P33" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="R33" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="S33" s="11" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A33),"$2",C33),"$3",E33),"$4",G33),"$5",I33),"$6",K33)</f>
         <v>INSERT INTO TblMikroHrkTip VALUES( 31,100,5,0,0,'Cari Borç Dekontu')</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="11">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34" s="11">
         <v>32</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="C33" s="11">
+      <c r="B34" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C34" s="11">
         <v>101</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D34" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E34" s="11">
         <v>5</v>
       </c>
-      <c r="E33" s="11">
+      <c r="F34" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="G34" s="11">
         <v>1</v>
       </c>
-      <c r="F33" s="11">
-        <v>0</v>
-      </c>
-      <c r="G33" s="11" t="s">
+      <c r="H34" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="I34" s="11">
+        <v>0</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="K34" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="K33" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="L34" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="N34" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="P34" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="R34" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="S34" s="11" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A34),"$2",C34),"$3",E34),"$4",G34),"$5",I34),"$6",K34)</f>
         <v>INSERT INTO TblMikroHrkTip VALUES( 32,101,5,1,0,'Cari Alacak Dekontu')</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:K31">
-    <sortCondition ref="J1"/>
+  <sortState ref="A2:S31">
+    <sortCondition ref="Q1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/mikro-doc/Entegre Mikro İslem Tip Tablosu 14-10-2016.xlsx
+++ b/mikro-doc/Entegre Mikro İslem Tip Tablosu 14-10-2016.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="272">
   <si>
     <t>chaislemid</t>
   </si>
@@ -1313,7 +1313,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1516,7 +1518,7 @@
         <v>270</v>
       </c>
       <c r="S3" s="11" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A3),"$2",C3),"$3",E3),"$4",G3),"$5",I3),"$6",K3)</f>
+        <f t="shared" ref="S3:S34" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A3),"$2",C3),"$3",E3),"$4",G3),"$5",I3),"$6",K3)</f>
         <v>INSERT INTO TblMikroHrkTip VALUES( 1,0,6,1,0,'Alış Faturası')</v>
       </c>
       <c r="T3" s="11">
@@ -1526,7 +1528,7 @@
         <v>230</v>
       </c>
       <c r="V3" s="11" t="str">
-        <f>U3&amp;"("&amp;A3&amp;"),"</f>
+        <f t="shared" ref="V3:V32" si="1">U3&amp;"("&amp;A3&amp;"),"</f>
         <v>AlisFat(1),</v>
       </c>
     </row>
@@ -1583,7 +1585,7 @@
         <v>270</v>
       </c>
       <c r="S4" s="11" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A4),"$2",C4),"$3",E4),"$4",G4),"$5",I4),"$6",K4)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO TblMikroHrkTip VALUES( 2,0,6,1,1,'Müşt.den İade (Bozuk ve Saglam) Faturası')</v>
       </c>
       <c r="T4" s="11">
@@ -1593,7 +1595,7 @@
         <v>229</v>
       </c>
       <c r="V4" s="11" t="str">
-        <f>U4&amp;"("&amp;A4&amp;"),"</f>
+        <f t="shared" si="1"/>
         <v>MustIadeFat(2),</v>
       </c>
     </row>
@@ -1650,7 +1652,7 @@
         <v>270</v>
       </c>
       <c r="S5" s="11" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A5),"$2",C5),"$3",E5),"$4",G5),"$5",I5),"$6",K5)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO TblMikroHrkTip VALUES( 3,63,6,0,0,'Satış Faturasi')</v>
       </c>
       <c r="T5" s="11">
@@ -1660,7 +1662,7 @@
         <v>228</v>
       </c>
       <c r="V5" s="11" t="str">
-        <f>U5&amp;"("&amp;A5&amp;"),"</f>
+        <f t="shared" si="1"/>
         <v>SatisFat(3),</v>
       </c>
     </row>
@@ -1717,7 +1719,7 @@
         <v>270</v>
       </c>
       <c r="S6" s="11" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A6),"$2",C6),"$3",E6),"$4",G6),"$5",I6),"$6",K6)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO TblMikroHrkTip VALUES( 4,63,6,0,1,'Satıcıya İade Faturası')</v>
       </c>
       <c r="T6" s="11">
@@ -1727,7 +1729,7 @@
         <v>227</v>
       </c>
       <c r="V6" s="11" t="str">
-        <f>U6&amp;"("&amp;A6&amp;"),"</f>
+        <f t="shared" si="1"/>
         <v>SatIadeFat(4),</v>
       </c>
     </row>
@@ -1784,7 +1786,7 @@
         <v>270</v>
       </c>
       <c r="S7" s="11" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A7),"$2",C7),"$3",E7),"$4",G7),"$5",I7),"$6",K7)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO TblMikroHrkTip VALUES( 5,0,8,1,0,'Alınan Hizmet Faturası')</v>
       </c>
       <c r="T7" s="11">
@@ -1794,7 +1796,7 @@
         <v>226</v>
       </c>
       <c r="V7" s="11" t="str">
-        <f>U7&amp;"("&amp;A7&amp;"),"</f>
+        <f t="shared" si="1"/>
         <v>AlinanHizFat(5),</v>
       </c>
     </row>
@@ -1851,7 +1853,7 @@
         <v>270</v>
       </c>
       <c r="S8" s="11" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A8),"$2",C8),"$3",E8),"$4",G8),"$5",I8),"$6",K8)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO TblMikroHrkTip VALUES( 6,63,8,0,0,'Verilen Hizmet Faturası')</v>
       </c>
       <c r="T8" s="11">
@@ -1861,7 +1863,7 @@
         <v>224</v>
       </c>
       <c r="V8" s="11" t="str">
-        <f>U8&amp;"("&amp;A8&amp;"),"</f>
+        <f t="shared" si="1"/>
         <v>VerHizFat(6),</v>
       </c>
     </row>
@@ -1918,7 +1920,7 @@
         <v>270</v>
       </c>
       <c r="S9" s="11" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A9),"$2",C9),"$3",E9),"$4",G9),"$5",I9),"$6",K9)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO TblMikroHrkTip VALUES( 7,1,0,1,0,'Nakit Tahsilat')</v>
       </c>
       <c r="T9" s="11">
@@ -1928,7 +1930,7 @@
         <v>225</v>
       </c>
       <c r="V9" s="11" t="str">
-        <f>U9&amp;"("&amp;A9&amp;"),"</f>
+        <f t="shared" si="1"/>
         <v>NakitTah(7),</v>
       </c>
     </row>
@@ -1985,7 +1987,7 @@
         <v>270</v>
       </c>
       <c r="S10" s="11" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A10),"$2",C10),"$3",E10),"$4",G10),"$5",I10),"$6",K10)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO TblMikroHrkTip VALUES( 8,34,0,1,0,'Havale (Alacak)')</v>
       </c>
       <c r="T10" s="11">
@@ -1995,7 +1997,7 @@
         <v>231</v>
       </c>
       <c r="V10" s="11" t="str">
-        <f>U10&amp;"("&amp;A10&amp;"),"</f>
+        <f t="shared" si="1"/>
         <v>HavaleAlacak(8),</v>
       </c>
     </row>
@@ -2052,7 +2054,7 @@
         <v>270</v>
       </c>
       <c r="S11" s="11" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A11),"$2",C11),"$3",E11),"$4",G11),"$5",I11),"$6",K11)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO TblMikroHrkTip VALUES( 9,35,0,0,0,'Havale Ödeme (Borç)(Gönderilen)')</v>
       </c>
       <c r="T11" s="11">
@@ -2062,7 +2064,7 @@
         <v>232</v>
       </c>
       <c r="V11" s="11" t="str">
-        <f>U11&amp;"("&amp;A11&amp;"),"</f>
+        <f t="shared" si="1"/>
         <v>HavaleBorc(9),</v>
       </c>
     </row>
@@ -2119,7 +2121,7 @@
         <v>270</v>
       </c>
       <c r="S12" s="11" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A12),"$2",C12),"$3",E12),"$4",G12),"$5",I12),"$6",K12)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO TblMikroHrkTip VALUES( 10,37,0,1,0,'Kasa Masraf Fişi (Alacak)')</v>
       </c>
       <c r="T12" s="11">
@@ -2129,7 +2131,7 @@
         <v>233</v>
       </c>
       <c r="V12" s="11" t="str">
-        <f>U12&amp;"("&amp;A12&amp;"),"</f>
+        <f t="shared" si="1"/>
         <v>KasaMasrafFis(10),</v>
       </c>
     </row>
@@ -2186,7 +2188,7 @@
         <v>270</v>
       </c>
       <c r="S13" s="11" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A13),"$2",C13),"$3",E13),"$4",G13),"$5",I13),"$6",K13)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO TblMikroHrkTip VALUES( 11,4,1,1,0,'Çek Alınan (Müşteri Çek Giriş)')</v>
       </c>
       <c r="T13" s="11">
@@ -2196,7 +2198,7 @@
         <v>234</v>
       </c>
       <c r="V13" s="11" t="str">
-        <f>U13&amp;"("&amp;A13&amp;"),"</f>
+        <f t="shared" si="1"/>
         <v>CekGiris(11),</v>
       </c>
     </row>
@@ -2253,7 +2255,7 @@
         <v>270</v>
       </c>
       <c r="S14" s="11" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A14),"$2",C14),"$3",E14),"$4",G14),"$5",I14),"$6",K14)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO TblMikroHrkTip VALUES( 12,5,1,0,0,'Portföydeki Çek Nakit (Borç)')</v>
       </c>
       <c r="T14" s="11">
@@ -2263,7 +2265,7 @@
         <v>235</v>
       </c>
       <c r="V14" s="11" t="str">
-        <f>U14&amp;"("&amp;A14&amp;"),"</f>
+        <f t="shared" si="1"/>
         <v>PortfoyCek(12),</v>
       </c>
     </row>
@@ -2320,7 +2322,7 @@
         <v>270</v>
       </c>
       <c r="S15" s="11" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A15),"$2",C15),"$3",E15),"$4",G15),"$5",I15),"$6",K15)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO TblMikroHrkTip VALUES( 13,11,1,0,0,'Takas Çek Çıkış (Borç)')</v>
       </c>
       <c r="T15" s="11">
@@ -2330,7 +2332,7 @@
         <v>236</v>
       </c>
       <c r="V15" s="11" t="str">
-        <f>U15&amp;"("&amp;A15&amp;"),"</f>
+        <f t="shared" si="1"/>
         <v>TakasCekBorc(13),</v>
       </c>
     </row>
@@ -2387,7 +2389,7 @@
         <v>270</v>
       </c>
       <c r="S16" s="11" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A16),"$2",C16),"$3",E16),"$4",G16),"$5",I16),"$6",K16)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO TblMikroHrkTip VALUES( 14,14,1,1,0,'Takas Çek Ödeme (Alacak)')</v>
       </c>
       <c r="T16" s="11">
@@ -2397,7 +2399,7 @@
         <v>237</v>
       </c>
       <c r="V16" s="11" t="str">
-        <f>U16&amp;"("&amp;A16&amp;"),"</f>
+        <f t="shared" si="1"/>
         <v>TakasCekAlacak(14),</v>
       </c>
     </row>
@@ -2454,7 +2456,7 @@
         <v>270</v>
       </c>
       <c r="S17" s="11" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A17),"$2",C17),"$3",E17),"$4",G17),"$5",I17),"$6",K17)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO TblMikroHrkTip VALUES( 15,29,16,0,0,'Açılış (Borç)')</v>
       </c>
       <c r="T17" s="11">
@@ -2464,7 +2466,7 @@
         <v>238</v>
       </c>
       <c r="V17" s="11" t="str">
-        <f>U17&amp;"("&amp;A17&amp;"),"</f>
+        <f t="shared" si="1"/>
         <v>AcilisBorc(15),</v>
       </c>
     </row>
@@ -2521,7 +2523,7 @@
         <v>270</v>
       </c>
       <c r="S18" s="11" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A18),"$2",C18),"$3",E18),"$4",G18),"$5",I18),"$6",K18)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO TblMikroHrkTip VALUES( 16,29,16,1,0,'Açılış (Alacak)')</v>
       </c>
       <c r="T18" s="11">
@@ -2531,7 +2533,7 @@
         <v>239</v>
       </c>
       <c r="V18" s="11" t="str">
-        <f>U18&amp;"("&amp;A18&amp;"),"</f>
+        <f t="shared" si="1"/>
         <v>AcilisAlacak(16),</v>
       </c>
     </row>
@@ -2588,7 +2590,7 @@
         <v>270</v>
       </c>
       <c r="S19" s="11" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A19),"$2",C19),"$3",E19),"$4",G19),"$5",I19),"$6",K19)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO TblMikroHrkTip VALUES( 17,1,19,1,0,'Kredi Kartı Tahsilatı (Müşteri)')</v>
       </c>
       <c r="T19" s="11">
@@ -2598,7 +2600,7 @@
         <v>254</v>
       </c>
       <c r="V19" s="11" t="str">
-        <f>U19&amp;"("&amp;A19&amp;"),"</f>
+        <f t="shared" si="1"/>
         <v>KrediKartiTahsilati(17),</v>
       </c>
     </row>
@@ -2655,7 +2657,7 @@
         <v>270</v>
       </c>
       <c r="S20" s="11" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A20),"$2",C20),"$3",E20),"$4",G20),"$5",I20),"$6",K20)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO TblMikroHrkTip VALUES( 18,54,19,0,0,'Kredi Kartı Ödeme(Borç)')</v>
       </c>
       <c r="T20" s="11">
@@ -2665,7 +2667,7 @@
         <v>255</v>
       </c>
       <c r="V20" s="11" t="str">
-        <f>U20&amp;"("&amp;A20&amp;"),"</f>
+        <f t="shared" si="1"/>
         <v>KrediKartiOdeme(18),</v>
       </c>
     </row>
@@ -2722,7 +2724,7 @@
         <v>270</v>
       </c>
       <c r="S21" s="11" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A21),"$2",C21),"$3",E21),"$4",G21),"$5",I21),"$6",K21)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO TblMikroHrkTip VALUES( 19,104,19,0,0,'Bankalar Arası Kredi Kartı Transferi(Borç)')</v>
       </c>
       <c r="T21" s="11">
@@ -2732,7 +2734,7 @@
         <v>240</v>
       </c>
       <c r="V21" s="11" t="str">
-        <f>U21&amp;"("&amp;A21&amp;"),"</f>
+        <f t="shared" si="1"/>
         <v>BankArasiKKTransfer(19),</v>
       </c>
     </row>
@@ -2789,7 +2791,7 @@
         <v>270</v>
       </c>
       <c r="S22" s="11" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A22),"$2",C22),"$3",E22),"$4",G22),"$5",I22),"$6",K22)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO TblMikroHrkTip VALUES( 20,64,22,0,0,'Kredi Kartı Ödeme(Firma)(Borç)Tediye Makbuzu')</v>
       </c>
       <c r="T22" s="11">
@@ -2799,7 +2801,7 @@
         <v>241</v>
       </c>
       <c r="V22" s="11" t="str">
-        <f>U22&amp;"("&amp;A22&amp;"),"</f>
+        <f t="shared" si="1"/>
         <v>KrediKartiFirmaOdeme(20),</v>
       </c>
     </row>
@@ -2856,7 +2858,7 @@
         <v>270</v>
       </c>
       <c r="S23" s="11" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A23),"$2",C23),"$3",E23),"$4",G23),"$5",I23),"$6",K23)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO TblMikroHrkTip VALUES( 21,55,27,1,0,'Gider Makbuzu(Alacak)')</v>
       </c>
       <c r="T23" s="11">
@@ -2866,7 +2868,7 @@
         <v>242</v>
       </c>
       <c r="V23" s="11" t="str">
-        <f>U23&amp;"("&amp;A23&amp;"),"</f>
+        <f t="shared" si="1"/>
         <v>GiderMakbuzu(21),</v>
       </c>
     </row>
@@ -2923,7 +2925,7 @@
         <v>270</v>
       </c>
       <c r="S24" s="11" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A24),"$2",C24),"$3",E24),"$4",G24),"$5",I24),"$6",K24)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO TblMikroHrkTip VALUES( 22,67,3,0,0,'Çek Verilen(Borç) (Firma Çek Çıkış)')</v>
       </c>
       <c r="T24" s="11">
@@ -2933,7 +2935,7 @@
         <v>243</v>
       </c>
       <c r="V24" s="11" t="str">
-        <f>U24&amp;"("&amp;A24&amp;"),"</f>
+        <f t="shared" si="1"/>
         <v>CekVerilen(22),</v>
       </c>
     </row>
@@ -2993,7 +2995,7 @@
         <v>270</v>
       </c>
       <c r="S25" s="11" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A25),"$2",C25),"$3",E25),"$4",G25),"$5",I25),"$6",K25)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO TblMikroHrkTip VALUES( 23,31,5,0,0,'BD Borç Dekontu')</v>
       </c>
       <c r="T25" s="11">
@@ -3003,7 +3005,7 @@
         <v>244</v>
       </c>
       <c r="V25" s="11" t="str">
-        <f>U25&amp;"("&amp;A25&amp;"),"</f>
+        <f t="shared" si="1"/>
         <v>BorcDekontu(23),</v>
       </c>
     </row>
@@ -3063,7 +3065,7 @@
         <v>270</v>
       </c>
       <c r="S26" s="11" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A26),"$2",C26),"$3",E26),"$4",G26),"$5",I26),"$6",K26)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO TblMikroHrkTip VALUES( 24,32,5,1,0,'BD Alacak Dekontu')</v>
       </c>
       <c r="T26" s="11">
@@ -3073,7 +3075,7 @@
         <v>245</v>
       </c>
       <c r="V26" s="11" t="str">
-        <f>U26&amp;"("&amp;A26&amp;"),"</f>
+        <f t="shared" si="1"/>
         <v>AlacakDekontu(24),</v>
       </c>
     </row>
@@ -3133,7 +3135,7 @@
         <v>270</v>
       </c>
       <c r="S27" s="11" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A27),"$2",C27),"$3",E27),"$4",G27),"$5",I27),"$6",K27)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO TblMikroHrkTip VALUES( 25,33,5,0,0,'Genel Amaçlı Virman Dekontu(Borç)')</v>
       </c>
       <c r="T27" s="11">
@@ -3143,7 +3145,7 @@
         <v>246</v>
       </c>
       <c r="V27" s="11" t="str">
-        <f>U27&amp;"("&amp;A27&amp;"),"</f>
+        <f t="shared" si="1"/>
         <v>GenelVirmanBorc(25),</v>
       </c>
     </row>
@@ -3200,7 +3202,7 @@
         <v>270</v>
       </c>
       <c r="S28" s="11" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A28),"$2",C28),"$3",E28),"$4",G28),"$5",I28),"$6",K28)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO TblMikroHrkTip VALUES( 26,33,5,1,0,'Genel Amaçlı Virman Dekontu(Alacak)')</v>
       </c>
       <c r="T28" s="11">
@@ -3210,7 +3212,7 @@
         <v>247</v>
       </c>
       <c r="V28" s="11" t="str">
-        <f>U28&amp;"("&amp;A28&amp;"),"</f>
+        <f t="shared" si="1"/>
         <v>GenelVirmanAlacak(26),</v>
       </c>
     </row>
@@ -3270,7 +3272,7 @@
         <v>270</v>
       </c>
       <c r="S29" s="11" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A29),"$2",C29),"$3",E29),"$4",G29),"$5",I29),"$6",K29)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO TblMikroHrkTip VALUES( 27,57,5,0,0,'Cari Hesaplar Arası Virman (Borç)')</v>
       </c>
       <c r="T29" s="11">
@@ -3280,7 +3282,7 @@
         <v>248</v>
       </c>
       <c r="V29" s="11" t="str">
-        <f>U29&amp;"("&amp;A29&amp;"),"</f>
+        <f t="shared" si="1"/>
         <v>CariVirmanBorc(27),</v>
       </c>
     </row>
@@ -3337,7 +3339,7 @@
         <v>270</v>
       </c>
       <c r="S30" s="11" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A30),"$2",C30),"$3",E30),"$4",G30),"$5",I30),"$6",K30)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO TblMikroHrkTip VALUES( 28,57,5,1,0,'Cari Hesaplar Arası Virman (Alacak)')</v>
       </c>
       <c r="T30" s="11">
@@ -3347,7 +3349,7 @@
         <v>249</v>
       </c>
       <c r="V30" s="11" t="str">
-        <f>U30&amp;"("&amp;A30&amp;"),"</f>
+        <f t="shared" si="1"/>
         <v>CariVirmanAlacak(28),</v>
       </c>
     </row>
@@ -3404,7 +3406,7 @@
         <v>270</v>
       </c>
       <c r="S31" s="11" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A31),"$2",C31),"$3",E31),"$4",G31),"$5",I31),"$6",K31)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO TblMikroHrkTip VALUES( 29,110,5,0,0,'Kasalar Arası Virman(Borç)')</v>
       </c>
       <c r="T31" s="11">
@@ -3414,7 +3416,7 @@
         <v>250</v>
       </c>
       <c r="V31" s="11" t="str">
-        <f>U31&amp;"("&amp;A31&amp;"),"</f>
+        <f t="shared" si="1"/>
         <v>KasaVirmanBorç(29),</v>
       </c>
     </row>
@@ -3471,7 +3473,7 @@
         <v>270</v>
       </c>
       <c r="S32" s="11" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A32),"$2",C32),"$3",E32),"$4",G32),"$5",I32),"$6",K32)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO TblMikroHrkTip VALUES( 30,110,5,1,0,'Kasalar Arasi Virman(Alacak)')</v>
       </c>
       <c r="T32" s="11">
@@ -3481,7 +3483,7 @@
         <v>251</v>
       </c>
       <c r="V32" s="11" t="str">
-        <f>U32&amp;"("&amp;A32&amp;"),"</f>
+        <f t="shared" si="1"/>
         <v>KasaVirmanAlacak(30),</v>
       </c>
     </row>
@@ -3525,6 +3527,9 @@
       <c r="N33" s="11" t="s">
         <v>270</v>
       </c>
+      <c r="O33" s="19" t="s">
+        <v>138</v>
+      </c>
       <c r="P33" s="11" t="s">
         <v>270</v>
       </c>
@@ -3532,7 +3537,7 @@
         <v>270</v>
       </c>
       <c r="S33" s="11" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A33),"$2",C33),"$3",E33),"$4",G33),"$5",I33),"$6",K33)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO TblMikroHrkTip VALUES( 31,100,5,0,0,'Cari Borç Dekontu')</v>
       </c>
     </row>
@@ -3576,6 +3581,9 @@
       <c r="N34" s="11" t="s">
         <v>270</v>
       </c>
+      <c r="O34" s="19" t="s">
+        <v>139</v>
+      </c>
       <c r="P34" s="11" t="s">
         <v>270</v>
       </c>
@@ -3583,7 +3591,7 @@
         <v>270</v>
       </c>
       <c r="S34" s="11" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($S$1,"$1",A34),"$2",C34),"$3",E34),"$4",G34),"$5",I34),"$6",K34)</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO TblMikroHrkTip VALUES( 32,101,5,1,0,'Cari Alacak Dekontu')</v>
       </c>
     </row>
@@ -3600,8 +3608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D138"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102:A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
